--- a/scale_table_master.xlsx
+++ b/scale_table_master.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/OneDrive - Missouri State University/RESEARCH/2 projects/IRT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David J. Herr\Desktop\IRT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">using!$A$1:$O$47</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -34,12 +34,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Marshall Beauchamp</author>
   </authors>
   <commentList>
-    <comment ref="E14" authorId="0">
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0">
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -88,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0">
+    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="426">
   <si>
     <t>Scale name</t>
   </si>
@@ -1603,7 +1603,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2098,7 +2098,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2765,7 +2765,8 @@
                     <c:v>Sum</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Items 1, 4, 5, 6, &amp; 9 make up the Presence of Meaning subscale_x000d_Items 2, 3, 7, 8, &amp; 10 make up the Search for Meaning subscale</c:v>
+                    <c:v>Items 1, 4, 5, 6, &amp; 9 make up the Presence of Meaning subscale
+Items 2, 3, 7, 8, &amp; 10 make up the Search for Meaning subscale</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>harmony (110_3, 110_2, 110_6, 110_1), life perspective (109_1, 109_3, 109_6, 109_7, 109_9, 109_11, 109_13), confusion (109_2, 109_5, 109_4, 109_8, 109_10, 109_12, 109_14), spirit (110_4, 110_5)</c:v>
@@ -2780,7 +2781,8 @@
                     <c:v>NEED TO HAVE QUESTIONS</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Items 1, 4, 5, 6, &amp; 9 make up the Presence of Meaning subscale_x000d_Items 2, 3, 7, 8, &amp; 10 make up the Search for Meaning subscale</c:v>
+                    <c:v>Items 1, 4, 5, 6, &amp; 9 make up the Presence of Meaning subscale
+Items 2, 3, 7, 8, &amp; 10 make up the Search for Meaning subscale</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>Averaged</c:v>
@@ -2810,7 +2812,12 @@
                     <c:v>Sum for total</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>SUM: Autonomy: items 1,7,13,19,25, 31, 37_x000d_Environmental mastery: items 2,8,14,20,26,32,38_x000d_Personal Growth: items 3,9,15,21,27,33,39_x000d_Positive Relations: items: 4,10,16,22,28,34,40_x000d_Purpose in life: items: 5,11,17,23,29,35,41_x000d_Self-acceptance: items 6,12,18,2</c:v>
+                    <c:v>SUM: Autonomy: items 1,7,13,19,25, 31, 37
+Environmental mastery: items 2,8,14,20,26,32,38
+Personal Growth: items 3,9,15,21,27,33,39
+Positive Relations: items: 4,10,16,22,28,34,40
+Purpose in life: items: 5,11,17,23,29,35,41
+Self-acceptance: items 6,12,18,24</c:v>
                   </c:pt>
                   <c:pt idx="19">
                     <c:v>Sum</c:v>
@@ -2828,102 +2835,144 @@
                     <c:v>Grouped into four levels (p. 236), subordinate constructs created.</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>Sum: Existensial vacuum: 3,_x000d_4, 5, 8, 9, 11, 12, 13, 14, 17, 19; Will to Meaning: 1, 6, 7, 10, 15, 18, 20</c:v>
+                    <c:v>Sum: Existensial vacuum: 3,
+4, 5, 8, 9, 11, 12, 13, 14, 17, 19; Will to Meaning: 1, 6, 7, 10, 15, 18, 20</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>Personal Hassle: 17, 24, 16, 19, 20, 26, 22, 21, 23, 27, 15, 30, 28, 25, 29, 18, 33, 8, 32_x000d_Academic Hassle:_x000d_2, 3, 12, 10, 9, 4, 1, 7, 11, 6, 5_x000d_Negative Life Event:_x000d_14, 13, 31, 34</c:v>
+                    <c:v>Personal Hassle: 17, 24, 16, 19, 20, 26, 22, 21, 23, 27, 15, 30, 28, 25, 29, 18, 33, 8, 32
+Academic Hassle:
+2, 3, 12, 10, 9, 4, 1, 7, 11, 6, 5
+Negative Life Event:
+14, 13, 31, 34</c:v>
                   </c:pt>
                   <c:pt idx="27">
                     <c:v>Sum</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>Sum_x000d_Positive: 1-13_x000d_Negative: 14-19</c:v>
+                    <c:v>Sum
+Positive: 1-13
+Negative: 14-19</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah_x000d_</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah
+</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>9_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>9
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>15_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>15
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>No _x000d_Verified using PDF source ~ Hannah_x000d__x000d__x000d_</c:v>
+                    <c:v>No 
+Verified using PDF source ~ Hannah
+</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>5, 9, 19_x000d_Verified using PDF source ~ Hannah_x000d_</c:v>
+                    <c:v>5, 9, 19
+Verified using PDF source ~ Hannah
+</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>9_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>9
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>3_x000d_Verified using PDF source ~ Hannah_x000d_</c:v>
+                    <c:v>3
+Verified using PDF source ~ Hannah
+</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>2, 4, 5, 7, 10, 12, 13, 15, 18_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>2, 4, 5, 7, 10, 12, 13, 15, 18
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v> Recode negative phrased items: # 3, 5, 10, 13,14,15,16,17,18,19, 23, 26, 27, 30,31,32, 34, 36, 39, 41_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v> Recode negative phrased items: # 3, 5, 10, 13,14,15,16,17,18,19, 23, 26, 27, 30,31,32, 34, 36, 39, 41
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>3, 7, 11, 12, 16, 19, 20_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>3, 7, 11, 12, 16, 19, 20
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah_x000d_</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah
+</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>7, 9, 11, 12 ,13 ,14 ,16, 19, 20, 21, 23, 24, 27, 28, 29_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>7, 9, 11, 12 ,13 ,14 ,16, 19, 20, 21, 23, 24, 27, 28, 29
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>1, 5, 9, 13_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>1, 5, 9, 13
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>3,4,5,6,9,12,13,15,18,20_x000d_Verified using PDF source ~ Hannah_x000d_</c:v>
+                    <c:v>3,4,5,6,9,12,13,15,18,20
+Verified using PDF source ~ Hannah
+</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah_x000d_</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah
+</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -3275,7 +3324,8 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Battista, J., &amp; Almond, R. (1973). The development of meaning in life. Psychiatry: Journal for the Study of Interpersonal Processes, 36(4), 409–427._x000d_Debats, D. L. (1998). Measurement of personal meaning: The psychometric properties of the life regard inde</c:v>
+                    <c:v>Battista, J., &amp; Almond, R. (1973). The development of meaning in life. Psychiatry: Journal for the Study of Interpersonal Processes, 36(4), 409–427.
+Debats, D. L. (1998). Measurement of personal meaning: The psychometric properties of the life regard index</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>Eakman, A. M., Carlson, M. E., &amp; Clark, F. A. (2010). The meaningful activity participation assessment: A measure of engagement in personally valued activities. The International Journal of Aging and Human Development, 70(4), 299-317.</c:v>
@@ -3323,16 +3373,16 @@
                     <c:v>Schulenberg, S. E., Schnetzer, L. W., &amp; Buchanan, E. M. (2011). The purpose in life test-short form: Development and psychometric support. Journal of Happiness Studies, 12(5), 861-876.</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Wong, P. P. (1998). Implicit theories of meaningful life and the development of the personal meaning profile. In P. P. Wong, P. S. Fry (Eds.) , The human quest for meaning: A handbook of psychological research and clinical applications (pp. 111-140). Mahw</c:v>
+                    <c:v>Wong, P. P. (1998). Implicit theories of meaningful life and the development of the personal meaning profile. In P. P. Wong, P. S. Fry (Eds.) , The human quest for meaning: A handbook of psychological research and clinical applications (pp. 111-140). Mahwa</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Maddi, S. R., Harvey, R. H., Khoshaba, D. M., Lu, J. L., Persico, M., &amp; Brow, M. (2006). The Personality Construct of Hardiness, III: Relationships With Repression, Innovativeness, Authoritarianism, and Performance. Journal Of Personality, 74, 575-598. do</c:v>
+                    <c:v>Maddi, S. R., Harvey, R. H., Khoshaba, D. M., Lu, J. L., Persico, M., &amp; Brow, M. (2006). The Personality Construct of Hardiness, III: Relationships With Repression, Innovativeness, Authoritarianism, and Performance. Journal Of Personality, 74, 575-598. doi</c:v>
                   </c:pt>
                   <c:pt idx="18">
                     <c:v>Ryff, C. D. (1989). Happiness is everything, or is it? Explorations on the meaning of psychological well-being. Journal of personality and social psychology, 57(6), 1069.</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>Waterman, A. S., Schwartz, S. J., Zamboanga, B. L., Ravert, R. D., Williams, M. K., Bede Agocha, V., ... &amp; Brent Donnellan, M. (2010). The Questionnaire for Eudaimonic Well-Being: Psychometric properties, demographic comparisons, and evidence of validity.</c:v>
+                    <c:v>Waterman, A. S., Schwartz, S. J., Zamboanga, B. L., Ravert, R. D., Williams, M. K., Bede Agocha, V., ... &amp; Brent Donnellan, M. (2010). The Questionnaire for Eudaimonic Well-Being: Psychometric properties, demographic comparisons, and evidence of validity. </c:v>
                   </c:pt>
                   <c:pt idx="20">
                     <c:v>Wagnild, G. M. (2011). The Resilience Scale User's Guide: For the US English Version of the Resilience Scale and the 14-item Resilience Scale (RS-14). P. E. Guinn (Ed.). Resilience Center.</c:v>
@@ -3344,7 +3394,8 @@
                     <c:v>Mascaro, N., Rosen, D. H., &amp; Morey, L. C. (2004). The development, construct validity, and clinical utility of the spiritual meaning scale. Personality and Individual Differences, 37(4), 845-860.</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>Reker, G. T. (1988, November). Sources of personal meaning among middle-aged and older adults: A replication. In Annual Meeting of the Gerontological Society of America, San Francisco, CA.  _x000d_Reker, G. T., &amp; Wong, P. T. P. (1988). Aging as an individual pr</c:v>
+                    <c:v>Reker, G. T. (1988, November). Sources of personal meaning among middle-aged and older adults: A replication. In Annual Meeting of the Gerontological Society of America, San Francisco, CA.  
+Reker, G. T., &amp; Wong, P. T. P. (1988). Aging as an individual pro</c:v>
                   </c:pt>
                   <c:pt idx="24">
                     <c:v>Crumbaugh, J. C. (1977). The seeking of noetic goals test (SONG): A complementary scale to the purpose in life test (PIL). Journal of Clinical Psychology, 33(3), 900-907.</c:v>
@@ -3550,24 +3601,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E85B-4028-A529-EFC2E1B26E3B}"/>
             </c:ext>
@@ -4151,7 +4202,8 @@
                     <c:v>Sum</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Items 1, 4, 5, 6, &amp; 9 make up the Presence of Meaning subscale_x000d_Items 2, 3, 7, 8, &amp; 10 make up the Search for Meaning subscale</c:v>
+                    <c:v>Items 1, 4, 5, 6, &amp; 9 make up the Presence of Meaning subscale
+Items 2, 3, 7, 8, &amp; 10 make up the Search for Meaning subscale</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>harmony (110_3, 110_2, 110_6, 110_1), life perspective (109_1, 109_3, 109_6, 109_7, 109_9, 109_11, 109_13), confusion (109_2, 109_5, 109_4, 109_8, 109_10, 109_12, 109_14), spirit (110_4, 110_5)</c:v>
@@ -4166,7 +4218,8 @@
                     <c:v>NEED TO HAVE QUESTIONS</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Items 1, 4, 5, 6, &amp; 9 make up the Presence of Meaning subscale_x000d_Items 2, 3, 7, 8, &amp; 10 make up the Search for Meaning subscale</c:v>
+                    <c:v>Items 1, 4, 5, 6, &amp; 9 make up the Presence of Meaning subscale
+Items 2, 3, 7, 8, &amp; 10 make up the Search for Meaning subscale</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>Averaged</c:v>
@@ -4196,7 +4249,12 @@
                     <c:v>Sum for total</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>SUM: Autonomy: items 1,7,13,19,25, 31, 37_x000d_Environmental mastery: items 2,8,14,20,26,32,38_x000d_Personal Growth: items 3,9,15,21,27,33,39_x000d_Positive Relations: items: 4,10,16,22,28,34,40_x000d_Purpose in life: items: 5,11,17,23,29,35,41_x000d_Self-acceptance: items 6,12,18,2</c:v>
+                    <c:v>SUM: Autonomy: items 1,7,13,19,25, 31, 37
+Environmental mastery: items 2,8,14,20,26,32,38
+Personal Growth: items 3,9,15,21,27,33,39
+Positive Relations: items: 4,10,16,22,28,34,40
+Purpose in life: items: 5,11,17,23,29,35,41
+Self-acceptance: items 6,12,18,24</c:v>
                   </c:pt>
                   <c:pt idx="19">
                     <c:v>Sum</c:v>
@@ -4214,102 +4272,144 @@
                     <c:v>Grouped into four levels (p. 236), subordinate constructs created.</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>Sum: Existensial vacuum: 3,_x000d_4, 5, 8, 9, 11, 12, 13, 14, 17, 19; Will to Meaning: 1, 6, 7, 10, 15, 18, 20</c:v>
+                    <c:v>Sum: Existensial vacuum: 3,
+4, 5, 8, 9, 11, 12, 13, 14, 17, 19; Will to Meaning: 1, 6, 7, 10, 15, 18, 20</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>Personal Hassle: 17, 24, 16, 19, 20, 26, 22, 21, 23, 27, 15, 30, 28, 25, 29, 18, 33, 8, 32_x000d_Academic Hassle:_x000d_2, 3, 12, 10, 9, 4, 1, 7, 11, 6, 5_x000d_Negative Life Event:_x000d_14, 13, 31, 34</c:v>
+                    <c:v>Personal Hassle: 17, 24, 16, 19, 20, 26, 22, 21, 23, 27, 15, 30, 28, 25, 29, 18, 33, 8, 32
+Academic Hassle:
+2, 3, 12, 10, 9, 4, 1, 7, 11, 6, 5
+Negative Life Event:
+14, 13, 31, 34</c:v>
                   </c:pt>
                   <c:pt idx="27">
                     <c:v>Sum</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>Sum_x000d_Positive: 1-13_x000d_Negative: 14-19</c:v>
+                    <c:v>Sum
+Positive: 1-13
+Negative: 14-19</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah_x000d_</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah
+</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>9_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>9
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>15_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>15
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>No _x000d_Verified using PDF source ~ Hannah_x000d__x000d__x000d_</c:v>
+                    <c:v>No 
+Verified using PDF source ~ Hannah
+</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>5, 9, 19_x000d_Verified using PDF source ~ Hannah_x000d_</c:v>
+                    <c:v>5, 9, 19
+Verified using PDF source ~ Hannah
+</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>9_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>9
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>3_x000d_Verified using PDF source ~ Hannah_x000d_</c:v>
+                    <c:v>3
+Verified using PDF source ~ Hannah
+</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>2, 4, 5, 7, 10, 12, 13, 15, 18_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>2, 4, 5, 7, 10, 12, 13, 15, 18
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v> Recode negative phrased items: # 3, 5, 10, 13,14,15,16,17,18,19, 23, 26, 27, 30,31,32, 34, 36, 39, 41_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v> Recode negative phrased items: # 3, 5, 10, 13,14,15,16,17,18,19, 23, 26, 27, 30,31,32, 34, 36, 39, 41
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>3, 7, 11, 12, 16, 19, 20_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>3, 7, 11, 12, 16, 19, 20
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah_x000d_</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah
+</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>7, 9, 11, 12 ,13 ,14 ,16, 19, 20, 21, 23, 24, 27, 28, 29_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>7, 9, 11, 12 ,13 ,14 ,16, 19, 20, 21, 23, 24, 27, 28, 29
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>1, 5, 9, 13_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>1, 5, 9, 13
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>3,4,5,6,9,12,13,15,18,20_x000d_Verified using PDF source ~ Hannah_x000d_</c:v>
+                    <c:v>3,4,5,6,9,12,13,15,18,20
+Verified using PDF source ~ Hannah
+</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah_x000d_</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah
+</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -4661,7 +4761,8 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Battista, J., &amp; Almond, R. (1973). The development of meaning in life. Psychiatry: Journal for the Study of Interpersonal Processes, 36(4), 409–427._x000d_Debats, D. L. (1998). Measurement of personal meaning: The psychometric properties of the life regard inde</c:v>
+                    <c:v>Battista, J., &amp; Almond, R. (1973). The development of meaning in life. Psychiatry: Journal for the Study of Interpersonal Processes, 36(4), 409–427.
+Debats, D. L. (1998). Measurement of personal meaning: The psychometric properties of the life regard index</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>Eakman, A. M., Carlson, M. E., &amp; Clark, F. A. (2010). The meaningful activity participation assessment: A measure of engagement in personally valued activities. The International Journal of Aging and Human Development, 70(4), 299-317.</c:v>
@@ -4709,16 +4810,16 @@
                     <c:v>Schulenberg, S. E., Schnetzer, L. W., &amp; Buchanan, E. M. (2011). The purpose in life test-short form: Development and psychometric support. Journal of Happiness Studies, 12(5), 861-876.</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Wong, P. P. (1998). Implicit theories of meaningful life and the development of the personal meaning profile. In P. P. Wong, P. S. Fry (Eds.) , The human quest for meaning: A handbook of psychological research and clinical applications (pp. 111-140). Mahw</c:v>
+                    <c:v>Wong, P. P. (1998). Implicit theories of meaningful life and the development of the personal meaning profile. In P. P. Wong, P. S. Fry (Eds.) , The human quest for meaning: A handbook of psychological research and clinical applications (pp. 111-140). Mahwa</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Maddi, S. R., Harvey, R. H., Khoshaba, D. M., Lu, J. L., Persico, M., &amp; Brow, M. (2006). The Personality Construct of Hardiness, III: Relationships With Repression, Innovativeness, Authoritarianism, and Performance. Journal Of Personality, 74, 575-598. do</c:v>
+                    <c:v>Maddi, S. R., Harvey, R. H., Khoshaba, D. M., Lu, J. L., Persico, M., &amp; Brow, M. (2006). The Personality Construct of Hardiness, III: Relationships With Repression, Innovativeness, Authoritarianism, and Performance. Journal Of Personality, 74, 575-598. doi</c:v>
                   </c:pt>
                   <c:pt idx="18">
                     <c:v>Ryff, C. D. (1989). Happiness is everything, or is it? Explorations on the meaning of psychological well-being. Journal of personality and social psychology, 57(6), 1069.</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>Waterman, A. S., Schwartz, S. J., Zamboanga, B. L., Ravert, R. D., Williams, M. K., Bede Agocha, V., ... &amp; Brent Donnellan, M. (2010). The Questionnaire for Eudaimonic Well-Being: Psychometric properties, demographic comparisons, and evidence of validity.</c:v>
+                    <c:v>Waterman, A. S., Schwartz, S. J., Zamboanga, B. L., Ravert, R. D., Williams, M. K., Bede Agocha, V., ... &amp; Brent Donnellan, M. (2010). The Questionnaire for Eudaimonic Well-Being: Psychometric properties, demographic comparisons, and evidence of validity. </c:v>
                   </c:pt>
                   <c:pt idx="20">
                     <c:v>Wagnild, G. M. (2011). The Resilience Scale User's Guide: For the US English Version of the Resilience Scale and the 14-item Resilience Scale (RS-14). P. E. Guinn (Ed.). Resilience Center.</c:v>
@@ -4730,7 +4831,8 @@
                     <c:v>Mascaro, N., Rosen, D. H., &amp; Morey, L. C. (2004). The development, construct validity, and clinical utility of the spiritual meaning scale. Personality and Individual Differences, 37(4), 845-860.</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>Reker, G. T. (1988, November). Sources of personal meaning among middle-aged and older adults: A replication. In Annual Meeting of the Gerontological Society of America, San Francisco, CA.  _x000d_Reker, G. T., &amp; Wong, P. T. P. (1988). Aging as an individual pr</c:v>
+                    <c:v>Reker, G. T. (1988, November). Sources of personal meaning among middle-aged and older adults: A replication. In Annual Meeting of the Gerontological Society of America, San Francisco, CA.  
+Reker, G. T., &amp; Wong, P. T. P. (1988). Aging as an individual pro</c:v>
                   </c:pt>
                   <c:pt idx="24">
                     <c:v>Crumbaugh, J. C. (1977). The seeking of noetic goals test (SONG): A complementary scale to the purpose in life test (PIL). Journal of Clinical Psychology, 33(3), 900-907.</c:v>
@@ -4936,12 +5038,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E85B-4028-A529-EFC2E1B26E3B}"/>
             </c:ext>
@@ -5682,7 +5784,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="116" workbookViewId="0" zoomToFit="1"/>
@@ -5703,7 +5805,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0E8752-40DE-45A0-ABA0-95B736074226}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0E8752-40DE-45A0-ABA0-95B736074226}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6047,15 +6149,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="186" zoomScaleNormal="186" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="19.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="19.83203125" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="56.5" style="7" customWidth="1"/>
     <col min="2" max="2" width="19.83203125" style="7"/>
@@ -6067,7 +6169,7 @@
     <col min="34" max="16384" width="19.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="54" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="54" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -6129,7 +6231,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="126" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="108" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>20</v>
       </c>
@@ -6189,7 +6291,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="72" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="72" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>30</v>
       </c>
@@ -6249,7 +6351,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="72" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="54" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>41</v>
       </c>
@@ -6309,7 +6411,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="144" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="144" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>50</v>
       </c>
@@ -6369,7 +6471,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="72" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="54" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>58</v>
       </c>
@@ -6429,7 +6531,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="90" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="90" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>64</v>
       </c>
@@ -6491,7 +6593,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="72" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="72" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>75</v>
       </c>
@@ -6551,7 +6653,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="90" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="72" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>80</v>
       </c>
@@ -6613,7 +6715,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="180" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="180" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>88</v>
       </c>
@@ -6675,7 +6777,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="108" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="90" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>100</v>
       </c>
@@ -6735,7 +6837,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="54" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="54" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>106</v>
       </c>
@@ -6795,7 +6897,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="306" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="288" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>111</v>
       </c>
@@ -6845,7 +6947,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="180" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="180" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>119</v>
       </c>
@@ -6892,10 +6994,10 @@
         <v>126</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>127</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="90" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="90" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>128</v>
       </c>
@@ -6945,7 +7047,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="90" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="72" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
         <v>134</v>
       </c>
@@ -7005,7 +7107,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="162" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" ht="144" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
         <v>140</v>
       </c>
@@ -7065,7 +7167,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="198" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" ht="198" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
         <v>147</v>
       </c>
@@ -7115,7 +7217,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="90" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" ht="72" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
         <v>154</v>
       </c>
@@ -7165,10 +7267,10 @@
         <v>162</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>127</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="72" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" ht="72" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
         <v>163</v>
       </c>
@@ -7218,7 +7320,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="144" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" ht="144" x14ac:dyDescent="0.4">
       <c r="A21" s="15" t="s">
         <v>167</v>
       </c>
@@ -7289,7 +7391,7 @@
       <c r="AH21" s="14"/>
       <c r="AI21" s="14"/>
     </row>
-    <row r="22" spans="1:35" ht="234" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" ht="234" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
         <v>175</v>
       </c>
@@ -7339,7 +7441,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:35" s="11" customFormat="1" ht="180" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" s="11" customFormat="1" ht="180" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>183</v>
       </c>
@@ -7391,7 +7493,9 @@
       </c>
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
+      <c r="T23" s="12" t="s">
+        <v>234</v>
+      </c>
       <c r="U23" s="12"/>
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
@@ -7406,7 +7510,7 @@
       <c r="AF23" s="12"/>
       <c r="AG23" s="12"/>
     </row>
-    <row r="24" spans="1:35" ht="126" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" ht="108" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
         <v>188</v>
       </c>
@@ -7456,7 +7560,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="108" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" ht="108" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
         <v>195</v>
       </c>
@@ -7509,7 +7613,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="144" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" ht="144" x14ac:dyDescent="0.4">
       <c r="A26" s="15" t="s">
         <v>167</v>
       </c>
@@ -7578,7 +7682,7 @@
       <c r="AH26" s="14"/>
       <c r="AI26" s="14"/>
     </row>
-    <row r="27" spans="1:35" ht="72" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" ht="54" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
         <v>188</v>
       </c>
@@ -7628,7 +7732,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="72" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" ht="72" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
         <v>212</v>
       </c>
@@ -7675,10 +7779,10 @@
         <v>217</v>
       </c>
       <c r="T28" s="7" t="s">
-        <v>127</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="90" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" ht="90" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
         <v>218</v>
       </c>
@@ -7721,8 +7825,11 @@
       <c r="Q29" s="7" t="s">
         <v>222</v>
       </c>
+      <c r="T29" s="7" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="30" spans="1:35" ht="72" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" ht="72" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
         <v>223</v>
       </c>
@@ -7772,7 +7879,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="126" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" ht="126" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
         <v>228</v>
       </c>
@@ -7819,7 +7926,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="90" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" ht="90" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
         <v>235</v>
       </c>
@@ -7869,7 +7976,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="72" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" ht="54" x14ac:dyDescent="0.4">
       <c r="A33" s="10" t="s">
         <v>241</v>
       </c>
@@ -7929,7 +8036,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="90" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" ht="90" x14ac:dyDescent="0.4">
       <c r="A34" s="10" t="s">
         <v>244</v>
       </c>
@@ -7990,7 +8097,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="90" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" ht="72" x14ac:dyDescent="0.4">
       <c r="A35" s="10" t="s">
         <v>248</v>
       </c>
@@ -8052,7 +8159,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="324" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" ht="324" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
         <v>256</v>
       </c>
@@ -8099,7 +8206,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="90" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" ht="90" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
         <v>263</v>
       </c>
@@ -8149,7 +8256,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="90" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" ht="72" x14ac:dyDescent="0.4">
       <c r="A38" s="10" t="s">
         <v>269</v>
       </c>
@@ -8209,7 +8316,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="126" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" ht="126" x14ac:dyDescent="0.4">
       <c r="A39" s="7" t="s">
         <v>274</v>
       </c>
@@ -8253,7 +8360,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="72" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" ht="72" x14ac:dyDescent="0.4">
       <c r="A40" s="10" t="s">
         <v>281</v>
       </c>
@@ -8316,7 +8423,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="126" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" ht="126" x14ac:dyDescent="0.4">
       <c r="A41" s="7" t="s">
         <v>286</v>
       </c>
@@ -8363,7 +8470,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="108" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" ht="108" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
         <v>293</v>
       </c>
@@ -8413,7 +8520,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="198" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" ht="180" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
         <v>300</v>
       </c>
@@ -8467,7 +8574,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="36" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" ht="36" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
         <v>306</v>
       </c>
@@ -8481,7 +8588,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="72" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" ht="54" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
         <v>308</v>
       </c>
@@ -8531,7 +8638,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="90" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" ht="72" x14ac:dyDescent="0.4">
       <c r="A46" s="7" t="s">
         <v>312</v>
       </c>
@@ -8592,16 +8699,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:XFC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16383" ht="126" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16383" ht="108" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>319</v>
       </c>
@@ -25020,7 +25127,7 @@
       <c r="XFB1" s="1"/>
       <c r="XFC1" s="1"/>
     </row>
-    <row r="2" spans="1:16383" s="1" customFormat="1" ht="288" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16383" s="1" customFormat="1" ht="288" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>323</v>
       </c>
@@ -25053,14 +25160,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="41.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="41.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
@@ -25086,7 +25193,7 @@
     <col min="22" max="22" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -25167,7 +25274,7 @@
       <c r="AH1" s="7"/>
       <c r="AI1" s="7"/>
     </row>
-    <row r="2" spans="1:35" ht="162" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="162" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>327</v>
       </c>
@@ -25230,14 +25337,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="36.33203125" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="36.33203125" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
@@ -25262,7 +25369,7 @@
     <col min="21" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>319</v>
       </c>
@@ -25327,7 +25434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>323</v>
       </c>
@@ -25369,7 +25476,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>323</v>
       </c>
@@ -25411,7 +25518,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>323</v>
       </c>
@@ -25453,7 +25560,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>323</v>
       </c>
@@ -25501,7 +25608,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>323</v>
       </c>
@@ -25549,7 +25656,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>323</v>
       </c>
@@ -25597,7 +25704,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>323</v>
       </c>
@@ -25639,7 +25746,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>323</v>
       </c>
@@ -25687,7 +25794,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>323</v>
       </c>
@@ -25729,7 +25836,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>323</v>
       </c>
@@ -25771,7 +25878,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>323</v>
       </c>
@@ -25810,7 +25917,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>323</v>
       </c>
@@ -25852,7 +25959,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>323</v>
       </c>
@@ -25900,7 +26007,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>323</v>
       </c>
@@ -25948,7 +26055,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>323</v>
       </c>
@@ -25990,7 +26097,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>323</v>
       </c>
@@ -26029,7 +26136,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>323</v>
       </c>
@@ -26089,7 +26196,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>323</v>
       </c>
@@ -26131,7 +26238,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>323</v>
       </c>
@@ -26188,7 +26295,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>323</v>
       </c>
@@ -26230,7 +26337,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>323</v>
       </c>
@@ -26272,7 +26379,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>323</v>
       </c>
@@ -26320,7 +26427,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>323</v>
       </c>
@@ -26362,7 +26469,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
         <v>323</v>
       </c>

--- a/scale_table_master.xlsx
+++ b/scale_table_master.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">using!$A$1:$O$47</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -39,7 +39,7 @@
     <author>Marshall Beauchamp</author>
   </authors>
   <commentList>
-    <comment ref="E14" authorId="0">
+    <comment ref="E14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0">
+    <comment ref="F14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0">
+    <comment ref="H14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1603,7 +1603,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2098,7 +2098,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2765,7 +2765,8 @@
                     <c:v>Sum</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Items 1, 4, 5, 6, &amp; 9 make up the Presence of Meaning subscale_x000d_Items 2, 3, 7, 8, &amp; 10 make up the Search for Meaning subscale</c:v>
+                    <c:v>Items 1, 4, 5, 6, &amp; 9 make up the Presence of Meaning subscale
+Items 2, 3, 7, 8, &amp; 10 make up the Search for Meaning subscale</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>harmony (110_3, 110_2, 110_6, 110_1), life perspective (109_1, 109_3, 109_6, 109_7, 109_9, 109_11, 109_13), confusion (109_2, 109_5, 109_4, 109_8, 109_10, 109_12, 109_14), spirit (110_4, 110_5)</c:v>
@@ -2780,7 +2781,8 @@
                     <c:v>NEED TO HAVE QUESTIONS</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Items 1, 4, 5, 6, &amp; 9 make up the Presence of Meaning subscale_x000d_Items 2, 3, 7, 8, &amp; 10 make up the Search for Meaning subscale</c:v>
+                    <c:v>Items 1, 4, 5, 6, &amp; 9 make up the Presence of Meaning subscale
+Items 2, 3, 7, 8, &amp; 10 make up the Search for Meaning subscale</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>Averaged</c:v>
@@ -2810,7 +2812,12 @@
                     <c:v>Sum for total</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>SUM: Autonomy: items 1,7,13,19,25, 31, 37_x000d_Environmental mastery: items 2,8,14,20,26,32,38_x000d_Personal Growth: items 3,9,15,21,27,33,39_x000d_Positive Relations: items: 4,10,16,22,28,34,40_x000d_Purpose in life: items: 5,11,17,23,29,35,41_x000d_Self-acceptance: items 6,12,18,2</c:v>
+                    <c:v>SUM: Autonomy: items 1,7,13,19,25, 31, 37
+Environmental mastery: items 2,8,14,20,26,32,38
+Personal Growth: items 3,9,15,21,27,33,39
+Positive Relations: items: 4,10,16,22,28,34,40
+Purpose in life: items: 5,11,17,23,29,35,41
+Self-acceptance: items 6,12,18,24</c:v>
                   </c:pt>
                   <c:pt idx="19">
                     <c:v>Sum</c:v>
@@ -2828,102 +2835,144 @@
                     <c:v>Grouped into four levels (p. 236), subordinate constructs created.</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>Sum: Existensial vacuum: 3,_x000d_4, 5, 8, 9, 11, 12, 13, 14, 17, 19; Will to Meaning: 1, 6, 7, 10, 15, 18, 20</c:v>
+                    <c:v>Sum: Existensial vacuum: 3,
+4, 5, 8, 9, 11, 12, 13, 14, 17, 19; Will to Meaning: 1, 6, 7, 10, 15, 18, 20</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>Personal Hassle: 17, 24, 16, 19, 20, 26, 22, 21, 23, 27, 15, 30, 28, 25, 29, 18, 33, 8, 32_x000d_Academic Hassle:_x000d_2, 3, 12, 10, 9, 4, 1, 7, 11, 6, 5_x000d_Negative Life Event:_x000d_14, 13, 31, 34</c:v>
+                    <c:v>Personal Hassle: 17, 24, 16, 19, 20, 26, 22, 21, 23, 27, 15, 30, 28, 25, 29, 18, 33, 8, 32
+Academic Hassle:
+2, 3, 12, 10, 9, 4, 1, 7, 11, 6, 5
+Negative Life Event:
+14, 13, 31, 34</c:v>
                   </c:pt>
                   <c:pt idx="27">
                     <c:v>Sum</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>Sum_x000d_Positive: 1-13_x000d_Negative: 14-19</c:v>
+                    <c:v>Sum
+Positive: 1-13
+Negative: 14-19</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah_x000d_</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah
+</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>9_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>9
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>15_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>15
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>No _x000d_Verified using PDF source ~ Hannah_x000d__x000d__x000d_</c:v>
+                    <c:v>No 
+Verified using PDF source ~ Hannah
+</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>5, 9, 19_x000d_Verified using PDF source ~ Hannah_x000d_</c:v>
+                    <c:v>5, 9, 19
+Verified using PDF source ~ Hannah
+</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>9_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>9
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>3_x000d_Verified using PDF source ~ Hannah_x000d_</c:v>
+                    <c:v>3
+Verified using PDF source ~ Hannah
+</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>2, 4, 5, 7, 10, 12, 13, 15, 18_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>2, 4, 5, 7, 10, 12, 13, 15, 18
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v> Recode negative phrased items: # 3, 5, 10, 13,14,15,16,17,18,19, 23, 26, 27, 30,31,32, 34, 36, 39, 41_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v> Recode negative phrased items: # 3, 5, 10, 13,14,15,16,17,18,19, 23, 26, 27, 30,31,32, 34, 36, 39, 41
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>3, 7, 11, 12, 16, 19, 20_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>3, 7, 11, 12, 16, 19, 20
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah_x000d_</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah
+</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>7, 9, 11, 12 ,13 ,14 ,16, 19, 20, 21, 23, 24, 27, 28, 29_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>7, 9, 11, 12 ,13 ,14 ,16, 19, 20, 21, 23, 24, 27, 28, 29
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>1, 5, 9, 13_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>1, 5, 9, 13
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>3,4,5,6,9,12,13,15,18,20_x000d_Verified using PDF source ~ Hannah_x000d_</c:v>
+                    <c:v>3,4,5,6,9,12,13,15,18,20
+Verified using PDF source ~ Hannah
+</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah_x000d_</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah
+</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -3275,7 +3324,8 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Battista, J., &amp; Almond, R. (1973). The development of meaning in life. Psychiatry: Journal for the Study of Interpersonal Processes, 36(4), 409–427._x000d_Debats, D. L. (1998). Measurement of personal meaning: The psychometric properties of the life regard inde</c:v>
+                    <c:v>Battista, J., &amp; Almond, R. (1973). The development of meaning in life. Psychiatry: Journal for the Study of Interpersonal Processes, 36(4), 409–427.
+Debats, D. L. (1998). Measurement of personal meaning: The psychometric properties of the life regard index</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>Eakman, A. M., Carlson, M. E., &amp; Clark, F. A. (2010). The meaningful activity participation assessment: A measure of engagement in personally valued activities. The International Journal of Aging and Human Development, 70(4), 299-317.</c:v>
@@ -3323,16 +3373,16 @@
                     <c:v>Schulenberg, S. E., Schnetzer, L. W., &amp; Buchanan, E. M. (2011). The purpose in life test-short form: Development and psychometric support. Journal of Happiness Studies, 12(5), 861-876.</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Wong, P. P. (1998). Implicit theories of meaningful life and the development of the personal meaning profile. In P. P. Wong, P. S. Fry (Eds.) , The human quest for meaning: A handbook of psychological research and clinical applications (pp. 111-140). Mahw</c:v>
+                    <c:v>Wong, P. P. (1998). Implicit theories of meaningful life and the development of the personal meaning profile. In P. P. Wong, P. S. Fry (Eds.) , The human quest for meaning: A handbook of psychological research and clinical applications (pp. 111-140). Mahwa</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Maddi, S. R., Harvey, R. H., Khoshaba, D. M., Lu, J. L., Persico, M., &amp; Brow, M. (2006). The Personality Construct of Hardiness, III: Relationships With Repression, Innovativeness, Authoritarianism, and Performance. Journal Of Personality, 74, 575-598. do</c:v>
+                    <c:v>Maddi, S. R., Harvey, R. H., Khoshaba, D. M., Lu, J. L., Persico, M., &amp; Brow, M. (2006). The Personality Construct of Hardiness, III: Relationships With Repression, Innovativeness, Authoritarianism, and Performance. Journal Of Personality, 74, 575-598. doi</c:v>
                   </c:pt>
                   <c:pt idx="18">
                     <c:v>Ryff, C. D. (1989). Happiness is everything, or is it? Explorations on the meaning of psychological well-being. Journal of personality and social psychology, 57(6), 1069.</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>Waterman, A. S., Schwartz, S. J., Zamboanga, B. L., Ravert, R. D., Williams, M. K., Bede Agocha, V., ... &amp; Brent Donnellan, M. (2010). The Questionnaire for Eudaimonic Well-Being: Psychometric properties, demographic comparisons, and evidence of validity.</c:v>
+                    <c:v>Waterman, A. S., Schwartz, S. J., Zamboanga, B. L., Ravert, R. D., Williams, M. K., Bede Agocha, V., ... &amp; Brent Donnellan, M. (2010). The Questionnaire for Eudaimonic Well-Being: Psychometric properties, demographic comparisons, and evidence of validity. </c:v>
                   </c:pt>
                   <c:pt idx="20">
                     <c:v>Wagnild, G. M. (2011). The Resilience Scale User's Guide: For the US English Version of the Resilience Scale and the 14-item Resilience Scale (RS-14). P. E. Guinn (Ed.). Resilience Center.</c:v>
@@ -3344,7 +3394,8 @@
                     <c:v>Mascaro, N., Rosen, D. H., &amp; Morey, L. C. (2004). The development, construct validity, and clinical utility of the spiritual meaning scale. Personality and Individual Differences, 37(4), 845-860.</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>Reker, G. T. (1988, November). Sources of personal meaning among middle-aged and older adults: A replication. In Annual Meeting of the Gerontological Society of America, San Francisco, CA.  _x000d_Reker, G. T., &amp; Wong, P. T. P. (1988). Aging as an individual pr</c:v>
+                    <c:v>Reker, G. T. (1988, November). Sources of personal meaning among middle-aged and older adults: A replication. In Annual Meeting of the Gerontological Society of America, San Francisco, CA.  
+Reker, G. T., &amp; Wong, P. T. P. (1988). Aging as an individual pro</c:v>
                   </c:pt>
                   <c:pt idx="24">
                     <c:v>Crumbaugh, J. C. (1977). The seeking of noetic goals test (SONG): A complementary scale to the purpose in life test (PIL). Journal of Clinical Psychology, 33(3), 900-907.</c:v>
@@ -3550,24 +3601,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="15">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E85B-4028-A529-EFC2E1B26E3B}"/>
             </c:ext>
@@ -4151,7 +4202,8 @@
                     <c:v>Sum</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Items 1, 4, 5, 6, &amp; 9 make up the Presence of Meaning subscale_x000d_Items 2, 3, 7, 8, &amp; 10 make up the Search for Meaning subscale</c:v>
+                    <c:v>Items 1, 4, 5, 6, &amp; 9 make up the Presence of Meaning subscale
+Items 2, 3, 7, 8, &amp; 10 make up the Search for Meaning subscale</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>harmony (110_3, 110_2, 110_6, 110_1), life perspective (109_1, 109_3, 109_6, 109_7, 109_9, 109_11, 109_13), confusion (109_2, 109_5, 109_4, 109_8, 109_10, 109_12, 109_14), spirit (110_4, 110_5)</c:v>
@@ -4166,7 +4218,8 @@
                     <c:v>NEED TO HAVE QUESTIONS</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Items 1, 4, 5, 6, &amp; 9 make up the Presence of Meaning subscale_x000d_Items 2, 3, 7, 8, &amp; 10 make up the Search for Meaning subscale</c:v>
+                    <c:v>Items 1, 4, 5, 6, &amp; 9 make up the Presence of Meaning subscale
+Items 2, 3, 7, 8, &amp; 10 make up the Search for Meaning subscale</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>Averaged</c:v>
@@ -4196,7 +4249,12 @@
                     <c:v>Sum for total</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>SUM: Autonomy: items 1,7,13,19,25, 31, 37_x000d_Environmental mastery: items 2,8,14,20,26,32,38_x000d_Personal Growth: items 3,9,15,21,27,33,39_x000d_Positive Relations: items: 4,10,16,22,28,34,40_x000d_Purpose in life: items: 5,11,17,23,29,35,41_x000d_Self-acceptance: items 6,12,18,2</c:v>
+                    <c:v>SUM: Autonomy: items 1,7,13,19,25, 31, 37
+Environmental mastery: items 2,8,14,20,26,32,38
+Personal Growth: items 3,9,15,21,27,33,39
+Positive Relations: items: 4,10,16,22,28,34,40
+Purpose in life: items: 5,11,17,23,29,35,41
+Self-acceptance: items 6,12,18,24</c:v>
                   </c:pt>
                   <c:pt idx="19">
                     <c:v>Sum</c:v>
@@ -4214,102 +4272,144 @@
                     <c:v>Grouped into four levels (p. 236), subordinate constructs created.</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>Sum: Existensial vacuum: 3,_x000d_4, 5, 8, 9, 11, 12, 13, 14, 17, 19; Will to Meaning: 1, 6, 7, 10, 15, 18, 20</c:v>
+                    <c:v>Sum: Existensial vacuum: 3,
+4, 5, 8, 9, 11, 12, 13, 14, 17, 19; Will to Meaning: 1, 6, 7, 10, 15, 18, 20</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>Personal Hassle: 17, 24, 16, 19, 20, 26, 22, 21, 23, 27, 15, 30, 28, 25, 29, 18, 33, 8, 32_x000d_Academic Hassle:_x000d_2, 3, 12, 10, 9, 4, 1, 7, 11, 6, 5_x000d_Negative Life Event:_x000d_14, 13, 31, 34</c:v>
+                    <c:v>Personal Hassle: 17, 24, 16, 19, 20, 26, 22, 21, 23, 27, 15, 30, 28, 25, 29, 18, 33, 8, 32
+Academic Hassle:
+2, 3, 12, 10, 9, 4, 1, 7, 11, 6, 5
+Negative Life Event:
+14, 13, 31, 34</c:v>
                   </c:pt>
                   <c:pt idx="27">
                     <c:v>Sum</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>Sum_x000d_Positive: 1-13_x000d_Negative: 14-19</c:v>
+                    <c:v>Sum
+Positive: 1-13
+Negative: 14-19</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah_x000d_</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah
+</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>9_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>9
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>15_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>15
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>No _x000d_Verified using PDF source ~ Hannah_x000d__x000d__x000d_</c:v>
+                    <c:v>No 
+Verified using PDF source ~ Hannah
+</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>5, 9, 19_x000d_Verified using PDF source ~ Hannah_x000d_</c:v>
+                    <c:v>5, 9, 19
+Verified using PDF source ~ Hannah
+</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>9_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>9
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>3_x000d_Verified using PDF source ~ Hannah_x000d_</c:v>
+                    <c:v>3
+Verified using PDF source ~ Hannah
+</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>2, 4, 5, 7, 10, 12, 13, 15, 18_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>2, 4, 5, 7, 10, 12, 13, 15, 18
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v> Recode negative phrased items: # 3, 5, 10, 13,14,15,16,17,18,19, 23, 26, 27, 30,31,32, 34, 36, 39, 41_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v> Recode negative phrased items: # 3, 5, 10, 13,14,15,16,17,18,19, 23, 26, 27, 30,31,32, 34, 36, 39, 41
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>3, 7, 11, 12, 16, 19, 20_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>3, 7, 11, 12, 16, 19, 20
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah_x000d_</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah
+</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>7, 9, 11, 12 ,13 ,14 ,16, 19, 20, 21, 23, 24, 27, 28, 29_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>7, 9, 11, 12 ,13 ,14 ,16, 19, 20, 21, 23, 24, 27, 28, 29
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>1, 5, 9, 13_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>1, 5, 9, 13
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>3,4,5,6,9,12,13,15,18,20_x000d_Verified using PDF source ~ Hannah_x000d_</c:v>
+                    <c:v>3,4,5,6,9,12,13,15,18,20
+Verified using PDF source ~ Hannah
+</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>No_x000d_Verified using PDF source ~ Hannah_x000d_</c:v>
+                    <c:v>No
+Verified using PDF source ~ Hannah
+</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -4661,7 +4761,8 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Battista, J., &amp; Almond, R. (1973). The development of meaning in life. Psychiatry: Journal for the Study of Interpersonal Processes, 36(4), 409–427._x000d_Debats, D. L. (1998). Measurement of personal meaning: The psychometric properties of the life regard inde</c:v>
+                    <c:v>Battista, J., &amp; Almond, R. (1973). The development of meaning in life. Psychiatry: Journal for the Study of Interpersonal Processes, 36(4), 409–427.
+Debats, D. L. (1998). Measurement of personal meaning: The psychometric properties of the life regard index</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>Eakman, A. M., Carlson, M. E., &amp; Clark, F. A. (2010). The meaningful activity participation assessment: A measure of engagement in personally valued activities. The International Journal of Aging and Human Development, 70(4), 299-317.</c:v>
@@ -4709,16 +4810,16 @@
                     <c:v>Schulenberg, S. E., Schnetzer, L. W., &amp; Buchanan, E. M. (2011). The purpose in life test-short form: Development and psychometric support. Journal of Happiness Studies, 12(5), 861-876.</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Wong, P. P. (1998). Implicit theories of meaningful life and the development of the personal meaning profile. In P. P. Wong, P. S. Fry (Eds.) , The human quest for meaning: A handbook of psychological research and clinical applications (pp. 111-140). Mahw</c:v>
+                    <c:v>Wong, P. P. (1998). Implicit theories of meaningful life and the development of the personal meaning profile. In P. P. Wong, P. S. Fry (Eds.) , The human quest for meaning: A handbook of psychological research and clinical applications (pp. 111-140). Mahwa</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Maddi, S. R., Harvey, R. H., Khoshaba, D. M., Lu, J. L., Persico, M., &amp; Brow, M. (2006). The Personality Construct of Hardiness, III: Relationships With Repression, Innovativeness, Authoritarianism, and Performance. Journal Of Personality, 74, 575-598. do</c:v>
+                    <c:v>Maddi, S. R., Harvey, R. H., Khoshaba, D. M., Lu, J. L., Persico, M., &amp; Brow, M. (2006). The Personality Construct of Hardiness, III: Relationships With Repression, Innovativeness, Authoritarianism, and Performance. Journal Of Personality, 74, 575-598. doi</c:v>
                   </c:pt>
                   <c:pt idx="18">
                     <c:v>Ryff, C. D. (1989). Happiness is everything, or is it? Explorations on the meaning of psychological well-being. Journal of personality and social psychology, 57(6), 1069.</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>Waterman, A. S., Schwartz, S. J., Zamboanga, B. L., Ravert, R. D., Williams, M. K., Bede Agocha, V., ... &amp; Brent Donnellan, M. (2010). The Questionnaire for Eudaimonic Well-Being: Psychometric properties, demographic comparisons, and evidence of validity.</c:v>
+                    <c:v>Waterman, A. S., Schwartz, S. J., Zamboanga, B. L., Ravert, R. D., Williams, M. K., Bede Agocha, V., ... &amp; Brent Donnellan, M. (2010). The Questionnaire for Eudaimonic Well-Being: Psychometric properties, demographic comparisons, and evidence of validity. </c:v>
                   </c:pt>
                   <c:pt idx="20">
                     <c:v>Wagnild, G. M. (2011). The Resilience Scale User's Guide: For the US English Version of the Resilience Scale and the 14-item Resilience Scale (RS-14). P. E. Guinn (Ed.). Resilience Center.</c:v>
@@ -4730,7 +4831,8 @@
                     <c:v>Mascaro, N., Rosen, D. H., &amp; Morey, L. C. (2004). The development, construct validity, and clinical utility of the spiritual meaning scale. Personality and Individual Differences, 37(4), 845-860.</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>Reker, G. T. (1988, November). Sources of personal meaning among middle-aged and older adults: A replication. In Annual Meeting of the Gerontological Society of America, San Francisco, CA.  _x000d_Reker, G. T., &amp; Wong, P. T. P. (1988). Aging as an individual pr</c:v>
+                    <c:v>Reker, G. T. (1988, November). Sources of personal meaning among middle-aged and older adults: A replication. In Annual Meeting of the Gerontological Society of America, San Francisco, CA.  
+Reker, G. T., &amp; Wong, P. T. P. (1988). Aging as an individual pro</c:v>
                   </c:pt>
                   <c:pt idx="24">
                     <c:v>Crumbaugh, J. C. (1977). The seeking of noetic goals test (SONG): A complementary scale to the purpose in life test (PIL). Journal of Clinical Psychology, 33(3), 900-907.</c:v>
@@ -4936,12 +5038,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E85B-4028-A529-EFC2E1B26E3B}"/>
             </c:ext>
@@ -5703,7 +5805,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0E8752-40DE-45A0-ABA0-95B736074226}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0E8752-40DE-45A0-ABA0-95B736074226}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6050,9 +6152,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="186" zoomScaleNormal="186" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="72" zoomScaleNormal="72" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V42" sqref="V42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -6369,7 +6471,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="72" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="54" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>58</v>
       </c>
@@ -6675,7 +6777,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="108" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="90" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>100</v>
       </c>
@@ -6795,7 +6897,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="306" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="324" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>111</v>
       </c>
@@ -7005,7 +7107,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="162" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" ht="144" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>140</v>
       </c>
@@ -7065,7 +7167,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="198" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" ht="216" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>147</v>
       </c>
@@ -7115,7 +7217,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="90" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" ht="72" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>154</v>
       </c>
@@ -7406,7 +7508,7 @@
       <c r="AF23" s="12"/>
       <c r="AG23" s="12"/>
     </row>
-    <row r="24" spans="1:35" ht="126" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" ht="108" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>188</v>
       </c>
@@ -7578,7 +7680,7 @@
       <c r="AH26" s="14"/>
       <c r="AI26" s="14"/>
     </row>
-    <row r="27" spans="1:35" ht="72" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" ht="54" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>188</v>
       </c>
@@ -7628,7 +7730,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="72" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" ht="54" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>212</v>
       </c>
@@ -7678,7 +7780,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="90" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" ht="72" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>218</v>
       </c>
@@ -7869,7 +7971,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="72" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" ht="54" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>241</v>
       </c>
@@ -8052,7 +8154,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="324" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" ht="378" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>256</v>
       </c>
@@ -8149,7 +8251,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="90" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" ht="72" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>269</v>
       </c>
@@ -8363,7 +8465,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="108" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" ht="126" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>293</v>
       </c>
@@ -8467,7 +8569,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="36" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" ht="54" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>306</v>
       </c>
@@ -8531,7 +8633,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="90" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" ht="72" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>312</v>
       </c>
@@ -26320,7 +26422,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>323</v>
       </c>

--- a/scale_table_master.xlsx
+++ b/scale_table_master.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/OneDrive - Missouri State University/RESEARCH/2 projects/IRT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/GitHub/IRT/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEBEC8E-513F-6140-8E61-5F48EFC787F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
@@ -21,10 +22,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">using!$A$1:$O$47</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -34,12 +43,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Marshall Beauchamp</author>
+    <author>tc={5B739FD9-87C2-184F-B770-2491C9AAE2CC}</author>
   </authors>
   <commentList>
-    <comment ref="E14" authorId="0" shapeId="0">
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0" shapeId="0">
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -88,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0" shapeId="0">
+    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -113,12 +123,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="A44" authorId="1" shapeId="0" xr:uid="{5B739FD9-87C2-184F-B770-2491C9AAE2CC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    this is the college scale, we don’t want to use it</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="423">
   <si>
     <t>Scale name</t>
   </si>
@@ -1223,23 +1241,7 @@
     <t>Li, H. (2002). College stress and psychological well-being: Vision in life as a coping resource (Doctoral dissertation, University of Hong Kong).</t>
   </si>
   <si>
-    <t>Personal Hassle: 17, 24, 16, 19, 20, 26, 22, 21, 23, 27, 15, 30, 28, 25, 29, 18, 33, 8, 32
-Academic Hassle:
-2, 3, 12, 10, 9, 4, 1, 7, 11, 6, 5
-Negative Life Event:
-14, 13, 31, 34</t>
-  </si>
-  <si>
-    <t>Items, 5, 8, 32, 33 not used</t>
-  </si>
-  <si>
     <t>315 no miss, 307 no out</t>
-  </si>
-  <si>
-    <t>Self-transcedence meaning of Life Scales 2</t>
-  </si>
-  <si>
-    <t>STMS 2</t>
   </si>
   <si>
     <t>Satisfaction with Life Scale</t>
@@ -1598,13 +1600,16 @@
   </si>
   <si>
     <t>Takkinen, S., &amp; Ruoppila, I. (2001). Meaning in life in three samples of elderly persons with high cognitive functioning. International Journal of Aging and Human Development, 53(1), 51-74.</t>
+  </si>
+  <si>
+    <t>VIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1659,8 +1664,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1676,6 +1687,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1855,7 +1872,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1930,6 +1947,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2295,6 +2315,9 @@
                   <c:pt idx="25">
                     <c:v>315 no miss, 307 no out</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>315 no miss, 307 no out</c:v>
+                  </c:pt>
                   <c:pt idx="27">
                     <c:v>506 no miss, 499 no out</c:v>
                   </c:pt>
@@ -2344,9 +2367,6 @@
                   <c:pt idx="23">
                     <c:v>we will need to research this more, not sure we ran the scale correctly/ Data screened despite this. Needs to be checked </c:v>
                   </c:pt>
-                  <c:pt idx="25">
-                    <c:v>Items, 5, 8, 32, 33 not used</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -2419,6 +2439,9 @@
                     <c:v>SONG</c:v>
                   </c:pt>
                   <c:pt idx="25">
+                    <c:v>VIL</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
                     <c:v>STMS</c:v>
                   </c:pt>
                   <c:pt idx="27">
@@ -2507,6 +2530,9 @@
                   <c:pt idx="25">
                     <c:v>Self-transcedence meaning of Life Scales</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Self-transcedence meaning of Life Scales</c:v>
+                  </c:pt>
                   <c:pt idx="27">
                     <c:v>Satisfaction with Life Scale</c:v>
                   </c:pt>
@@ -2587,6 +2613,9 @@
                   <c:pt idx="25">
                     <c:v>0.79</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0.79</c:v>
+                  </c:pt>
                   <c:pt idx="27">
                     <c:v>0.87</c:v>
                   </c:pt>
@@ -2667,6 +2696,9 @@
                   <c:pt idx="25">
                     <c:v>102</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>102</c:v>
+                  </c:pt>
                   <c:pt idx="27">
                     <c:v>35</c:v>
                   </c:pt>
@@ -2745,6 +2777,9 @@
                     <c:v>7</c:v>
                   </c:pt>
                   <c:pt idx="25">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="27">
@@ -2838,13 +2873,6 @@
                     <c:v>Sum: Existensial vacuum: 3,
 4, 5, 8, 9, 11, 12, 13, 14, 17, 19; Will to Meaning: 1, 6, 7, 10, 15, 18, 20</c:v>
                   </c:pt>
-                  <c:pt idx="25">
-                    <c:v>Personal Hassle: 17, 24, 16, 19, 20, 26, 22, 21, 23, 27, 15, 30, 28, 25, 29, 18, 33, 8, 32
-Academic Hassle:
-2, 3, 12, 10, 9, 4, 1, 7, 11, 6, 5
-Negative Life Event:
-14, 13, 31, 34</c:v>
-                  </c:pt>
                   <c:pt idx="27">
                     <c:v>Sum</c:v>
                   </c:pt>
@@ -2965,6 +2993,10 @@
                     <c:v>No
 Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
+                  </c:pt>
                   <c:pt idx="27">
                     <c:v>No
 Verified using PDF source ~ Hannah</c:v>
@@ -3054,6 +3086,9 @@
                   <c:pt idx="25">
                     <c:v>3</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3</c:v>
+                  </c:pt>
                   <c:pt idx="27">
                     <c:v>1</c:v>
                   </c:pt>
@@ -3140,6 +3175,9 @@
                   <c:pt idx="25">
                     <c:v>Likert (0-3)</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Likert (0-3)</c:v>
+                  </c:pt>
                   <c:pt idx="27">
                     <c:v>Likert (1-7)</c:v>
                   </c:pt>
@@ -3224,10 +3262,10 @@
                     <c:v>20</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>8</c:v>
+                    <c:v>38</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>38</c:v>
+                    <c:v>34</c:v>
                   </c:pt>
                   <c:pt idx="27">
                     <c:v>5</c:v>
@@ -3313,6 +3351,9 @@
                     <c:v>1977</c:v>
                   </c:pt>
                   <c:pt idx="25">
+                    <c:v>2002</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
                     <c:v>2002</c:v>
                   </c:pt>
                   <c:pt idx="27">
@@ -3490,10 +3531,10 @@
                     <c:v>SONG</c:v>
                   </c:pt>
                   <c:pt idx="25">
+                    <c:v>VIL</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
                     <c:v>STMS</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>STMS 2</c:v>
                   </c:pt>
                   <c:pt idx="27">
                     <c:v>SWLS</c:v>
@@ -3582,7 +3623,7 @@
                     <c:v>Self-transcedence meaning of Life Scales</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>Self-transcedence meaning of Life Scales 2</c:v>
+                    <c:v>Self-transcedence meaning of Life Scales</c:v>
                   </c:pt>
                   <c:pt idx="27">
                     <c:v>Satisfaction with Life Scale</c:v>
@@ -3732,6 +3773,9 @@
                   <c:pt idx="25">
                     <c:v>315 no miss, 307 no out</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>315 no miss, 307 no out</c:v>
+                  </c:pt>
                   <c:pt idx="27">
                     <c:v>506 no miss, 499 no out</c:v>
                   </c:pt>
@@ -3781,9 +3825,6 @@
                   <c:pt idx="23">
                     <c:v>we will need to research this more, not sure we ran the scale correctly/ Data screened despite this. Needs to be checked </c:v>
                   </c:pt>
-                  <c:pt idx="25">
-                    <c:v>Items, 5, 8, 32, 33 not used</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -3856,6 +3897,9 @@
                     <c:v>SONG</c:v>
                   </c:pt>
                   <c:pt idx="25">
+                    <c:v>VIL</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
                     <c:v>STMS</c:v>
                   </c:pt>
                   <c:pt idx="27">
@@ -3944,6 +3988,9 @@
                   <c:pt idx="25">
                     <c:v>Self-transcedence meaning of Life Scales</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Self-transcedence meaning of Life Scales</c:v>
+                  </c:pt>
                   <c:pt idx="27">
                     <c:v>Satisfaction with Life Scale</c:v>
                   </c:pt>
@@ -4024,6 +4071,9 @@
                   <c:pt idx="25">
                     <c:v>0.79</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0.79</c:v>
+                  </c:pt>
                   <c:pt idx="27">
                     <c:v>0.87</c:v>
                   </c:pt>
@@ -4104,6 +4154,9 @@
                   <c:pt idx="25">
                     <c:v>102</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>102</c:v>
+                  </c:pt>
                   <c:pt idx="27">
                     <c:v>35</c:v>
                   </c:pt>
@@ -4182,6 +4235,9 @@
                     <c:v>7</c:v>
                   </c:pt>
                   <c:pt idx="25">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="27">
@@ -4275,13 +4331,6 @@
                     <c:v>Sum: Existensial vacuum: 3,
 4, 5, 8, 9, 11, 12, 13, 14, 17, 19; Will to Meaning: 1, 6, 7, 10, 15, 18, 20</c:v>
                   </c:pt>
-                  <c:pt idx="25">
-                    <c:v>Personal Hassle: 17, 24, 16, 19, 20, 26, 22, 21, 23, 27, 15, 30, 28, 25, 29, 18, 33, 8, 32
-Academic Hassle:
-2, 3, 12, 10, 9, 4, 1, 7, 11, 6, 5
-Negative Life Event:
-14, 13, 31, 34</c:v>
-                  </c:pt>
                   <c:pt idx="27">
                     <c:v>Sum</c:v>
                   </c:pt>
@@ -4402,6 +4451,10 @@
                     <c:v>No
 Verified using PDF source ~ Hannah</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>No
+Verified using PDF source ~ Hannah</c:v>
+                  </c:pt>
                   <c:pt idx="27">
                     <c:v>No
 Verified using PDF source ~ Hannah</c:v>
@@ -4491,6 +4544,9 @@
                   <c:pt idx="25">
                     <c:v>3</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>3</c:v>
+                  </c:pt>
                   <c:pt idx="27">
                     <c:v>1</c:v>
                   </c:pt>
@@ -4577,6 +4633,9 @@
                   <c:pt idx="25">
                     <c:v>Likert (0-3)</c:v>
                   </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Likert (0-3)</c:v>
+                  </c:pt>
                   <c:pt idx="27">
                     <c:v>Likert (1-7)</c:v>
                   </c:pt>
@@ -4661,10 +4720,10 @@
                     <c:v>20</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>8</c:v>
+                    <c:v>38</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>38</c:v>
+                    <c:v>34</c:v>
                   </c:pt>
                   <c:pt idx="27">
                     <c:v>5</c:v>
@@ -4750,6 +4809,9 @@
                     <c:v>1977</c:v>
                   </c:pt>
                   <c:pt idx="25">
+                    <c:v>2002</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
                     <c:v>2002</c:v>
                   </c:pt>
                   <c:pt idx="27">
@@ -4927,10 +4989,10 @@
                     <c:v>SONG</c:v>
                   </c:pt>
                   <c:pt idx="25">
+                    <c:v>VIL</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
                     <c:v>STMS</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>STMS 2</c:v>
                   </c:pt>
                   <c:pt idx="27">
                     <c:v>SWLS</c:v>
@@ -5019,7 +5081,7 @@
                     <c:v>Self-transcedence meaning of Life Scales</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>Self-transcedence meaning of Life Scales 2</c:v>
+                    <c:v>Self-transcedence meaning of Life Scales</c:v>
                   </c:pt>
                   <c:pt idx="27">
                     <c:v>Satisfaction with Life Scale</c:v>
@@ -5784,10 +5846,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="98" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5799,7 +5861,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8657376" cy="6285557"/>
+    <xdr:ext cx="8669694" cy="6272245"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5826,6 +5888,12 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Buchanan, Erin M" id="{17AA908E-91D8-7340-B6D0-7948DCA30DA1}" userId="S::eri2005@missouristate.edu::245520d0-72e6-44b8-b90c-1c94bdd95622" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6148,13 +6216,21 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A44" dT="2020-04-15T21:35:30.98" personId="{17AA908E-91D8-7340-B6D0-7948DCA30DA1}" id="{5B739FD9-87C2-184F-B770-2491C9AAE2CC}">
+    <text>this is the college scale, we don’t want to use it</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="72" zoomScaleNormal="72" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V42" sqref="V42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -6169,7 +6245,7 @@
     <col min="34" max="16384" width="19.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="54" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="57" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -6231,7 +6307,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="126" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="133" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>20</v>
       </c>
@@ -6291,7 +6367,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="72" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="76" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>30</v>
       </c>
@@ -6351,7 +6427,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="72" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="76" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>41</v>
       </c>
@@ -6411,7 +6487,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="144" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="152" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>50</v>
       </c>
@@ -6471,7 +6547,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="54" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="76" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>58</v>
       </c>
@@ -6531,7 +6607,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="90" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="114" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>64</v>
       </c>
@@ -6593,7 +6669,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="72" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="76" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>75</v>
       </c>
@@ -6653,7 +6729,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="90" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="95" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>80</v>
       </c>
@@ -6715,7 +6791,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="180" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="209" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>88</v>
       </c>
@@ -6777,7 +6853,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="90" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="114" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>100</v>
       </c>
@@ -6837,7 +6913,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="54" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>106</v>
       </c>
@@ -6897,7 +6973,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="324" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="361" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>111</v>
       </c>
@@ -6947,7 +7023,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="180" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="190" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>119</v>
       </c>
@@ -6997,7 +7073,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="90" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="114" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>128</v>
       </c>
@@ -7047,7 +7123,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="90" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="95" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>134</v>
       </c>
@@ -7107,7 +7183,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="144" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" ht="171" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>140</v>
       </c>
@@ -7167,7 +7243,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="216" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" ht="247" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>147</v>
       </c>
@@ -7217,7 +7293,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="72" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" ht="95" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>154</v>
       </c>
@@ -7270,7 +7346,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="72" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" ht="76" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>163</v>
       </c>
@@ -7320,7 +7396,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="144" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" ht="152" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>167</v>
       </c>
@@ -7391,7 +7467,7 @@
       <c r="AH21" s="14"/>
       <c r="AI21" s="14"/>
     </row>
-    <row r="22" spans="1:35" ht="234" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" ht="266" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>175</v>
       </c>
@@ -7441,7 +7517,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:35" s="11" customFormat="1" ht="180" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" s="11" customFormat="1" ht="190" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>183</v>
       </c>
@@ -7508,7 +7584,7 @@
       <c r="AF23" s="12"/>
       <c r="AG23" s="12"/>
     </row>
-    <row r="24" spans="1:35" ht="108" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" ht="133" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>188</v>
       </c>
@@ -7558,7 +7634,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="108" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" ht="114" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>195</v>
       </c>
@@ -7611,7 +7687,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="144" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" ht="152" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>167</v>
       </c>
@@ -7680,7 +7756,7 @@
       <c r="AH26" s="14"/>
       <c r="AI26" s="14"/>
     </row>
-    <row r="27" spans="1:35" ht="54" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" ht="76" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>188</v>
       </c>
@@ -7730,7 +7806,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="54" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" ht="76" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>212</v>
       </c>
@@ -7780,7 +7856,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="72" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" ht="95" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>218</v>
       </c>
@@ -7824,7 +7900,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="72" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" ht="76" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>223</v>
       </c>
@@ -7874,7 +7950,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="126" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" ht="133" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>228</v>
       </c>
@@ -7921,7 +7997,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="90" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" ht="95" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>235</v>
       </c>
@@ -7971,7 +8047,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="54" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" ht="76" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>241</v>
       </c>
@@ -8031,7 +8107,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="90" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" ht="95" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>244</v>
       </c>
@@ -8092,7 +8168,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="90" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" ht="95" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>248</v>
       </c>
@@ -8154,7 +8230,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="378" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>256</v>
       </c>
@@ -8201,7 +8277,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="90" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" ht="95" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>263</v>
       </c>
@@ -8251,7 +8327,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="72" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" ht="95" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>269</v>
       </c>
@@ -8311,7 +8387,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="126" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" ht="133" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>274</v>
       </c>
@@ -8355,7 +8431,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="72" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" ht="76" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>281</v>
       </c>
@@ -8418,7 +8494,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="126" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" ht="152" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>286</v>
       </c>
@@ -8465,7 +8541,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="126" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" ht="133" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>293</v>
       </c>
@@ -8515,12 +8591,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="198" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" ht="76" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>300</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>301</v>
+        <v>422</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>302</v>
@@ -8529,7 +8605,7 @@
         <v>2002</v>
       </c>
       <c r="E43" s="7">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>251</v>
@@ -8540,9 +8616,7 @@
       <c r="H43" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="I43" s="7" t="s">
-        <v>303</v>
-      </c>
+      <c r="I43" s="26"/>
       <c r="J43" s="7">
         <v>0</v>
       </c>
@@ -8557,41 +8631,73 @@
         <v>300</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>304</v>
+        <v>422</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="T43" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="54" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" ht="76" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>302</v>
       </c>
+      <c r="D44" s="7">
+        <v>2002</v>
+      </c>
       <c r="E44" s="7">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G44" s="7">
+        <v>3</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="I44" s="26"/>
+      <c r="J44" s="7">
+        <v>0</v>
+      </c>
+      <c r="K44" s="7">
+        <f>3*34</f>
+        <v>102</v>
+      </c>
+      <c r="L44" s="7">
+        <v>0.79</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q44" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="T44" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="72" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" ht="76" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D45" s="7">
         <v>1985</v>
@@ -8621,27 +8727,27 @@
         <v>0.87</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="T45" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="72" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" ht="95" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D46" s="7">
         <v>2001</v>
@@ -8659,32 +8765,32 @@
         <v>272</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="L46" s="7">
         <v>0.94</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="T46" s="7" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AK47">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AK47">
     <sortCondition ref="B2:B47"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8694,7 +8800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:XFC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8703,18 +8809,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16383" ht="126" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16383" ht="133" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -8753,7 +8859,7 @@
         <v>13</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -25122,18 +25228,18 @@
       <c r="XFB1" s="1"/>
       <c r="XFC1" s="1"/>
     </row>
-    <row r="2" spans="1:16383" s="1" customFormat="1" ht="288" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16383" s="1" customFormat="1" ht="304" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I2" s="1">
         <f>G2/(2014-H2)</f>
@@ -25155,7 +25261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25188,7 +25294,7 @@
     <col min="22" max="22" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" s="6" customFormat="1" ht="38" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -25269,12 +25375,12 @@
       <c r="AH1" s="7"/>
       <c r="AI1" s="7"/>
     </row>
-    <row r="2" spans="1:35" ht="162" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="171" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>246</v>
@@ -25299,10 +25405,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L2" s="7">
         <v>1</v>
@@ -25311,13 +25417,13 @@
         <v>7</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Q2" s="7"/>
       <c r="R2" s="18"/>
@@ -25332,7 +25438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -25366,16 +25472,16 @@
   <sheetData>
     <row r="1" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>0</v>
@@ -25384,7 +25490,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>2</v>
@@ -25423,7 +25529,7 @@
         <v>13</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>14</v>
@@ -25431,28 +25537,28 @@
     </row>
     <row r="2" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>342</v>
       </c>
       <c r="I2" s="5">
         <v>102</v>
@@ -25468,33 +25574,33 @@
         <v>1</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>341</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I3" s="5">
         <v>40</v>
@@ -25510,33 +25616,33 @@
         <v>2</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>341</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I4" s="5">
         <v>41</v>
@@ -25552,33 +25658,33 @@
         <v>1</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>350</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>354</v>
       </c>
       <c r="I5" s="5">
         <v>16</v>
@@ -25600,33 +25706,33 @@
         <v>3</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I6" s="5">
         <v>73</v>
@@ -25642,39 +25748,39 @@
         <v>44</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="N6" s="5">
         <v>5</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I7" s="5">
         <v>7</v>
@@ -25701,25 +25807,25 @@
     </row>
     <row r="8" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>175</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="I8" s="5">
         <v>117</v>
@@ -25735,7 +25841,7 @@
         <v>11</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="S8" s="5">
         <v>0.78</v>
@@ -25743,28 +25849,28 @@
     </row>
     <row r="9" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I9" s="5">
         <v>20</v>
@@ -25791,28 +25897,28 @@
     </row>
     <row r="10" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I10" s="5">
         <v>25</v>
@@ -25828,33 +25934,33 @@
         <v>2</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I11" s="5">
         <v>15</v>
@@ -25875,25 +25981,25 @@
     </row>
     <row r="12" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I12" s="5">
         <v>55</v>
@@ -25909,30 +26015,30 @@
         <v>40</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I13" s="5">
         <v>80</v>
@@ -25945,39 +26051,39 @@
         <v>3.8095238095238093</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I14" s="5">
         <v>21</v>
@@ -25999,33 +26105,33 @@
         <v>11</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I15" s="5">
         <v>38</v>
@@ -26041,39 +26147,39 @@
         <v>151</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="N15" s="5">
         <v>26</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I16" s="5">
         <v>97</v>
@@ -26089,30 +26195,30 @@
         <v>4</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" s="5" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="I17" s="5">
         <v>38</v>
@@ -26128,33 +26234,33 @@
         <v>28</v>
       </c>
       <c r="M17" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="5" customFormat="1" ht="38" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>397</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>401</v>
       </c>
       <c r="I18" s="5">
         <v>122</v>
@@ -26176,10 +26282,10 @@
         <v>0</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="Q18" s="5">
         <v>8</v>
@@ -26191,27 +26297,27 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" s="5" customFormat="1" ht="38" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I19" s="5">
         <v>12</v>
@@ -26227,36 +26333,36 @@
         <v>5</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="S19" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" s="5" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I20" s="5">
         <v>60</v>
@@ -26278,7 +26384,7 @@
         <v>10</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="Q20" s="5">
         <v>1</v>
@@ -26287,33 +26393,33 @@
         <v>5</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" s="5" customFormat="1" ht="38" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="I21" s="5">
         <v>164</v>
@@ -26329,30 +26435,30 @@
         <v>1</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" s="5" customFormat="1" ht="38" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="I22" s="5">
         <v>32</v>
@@ -26368,36 +26474,36 @@
         <v>5</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="S22" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" s="5" customFormat="1" ht="38" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>282</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="I23" s="5">
         <v>27</v>
@@ -26419,33 +26525,33 @@
         <v>6</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" s="5" customFormat="1" ht="38" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>341</v>
-      </c>
       <c r="H24" s="4" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="I24" s="5">
         <v>164</v>
@@ -26461,30 +26567,30 @@
         <v>2</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" s="5" customFormat="1" ht="38" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>341</v>
-      </c>
       <c r="H25" s="4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I25" s="5">
         <v>30</v>
@@ -26500,7 +26606,7 @@
         <v>2</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>61</v>

--- a/scale_table_master.xlsx
+++ b/scale_table_master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buchanan/GitHub/IRT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffpavlacic/Documents/GitHub/IRT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEBEC8E-513F-6140-8E61-5F48EFC787F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF0CC61-6246-0144-B6B8-8D249F7928C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9640" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
@@ -46,6 +46,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Marshall Beauchamp</author>
+    <author>tc={E999AAB3-10E2-E64D-B66B-3CCD4FA02825}</author>
     <author>tc={5B739FD9-87C2-184F-B770-2491C9AAE2CC}</author>
   </authors>
   <commentList>
@@ -123,7 +124,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="A44" authorId="1" shapeId="0" xr:uid="{5B739FD9-87C2-184F-B770-2491C9AAE2CC}">
+    <comment ref="E43" authorId="1" shapeId="0" xr:uid="{E999AAB3-10E2-E64D-B66B-3CCD4FA02825}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    this looks to be 42 items on the PDF….did we miss something? exclude items? coded as 38 items </t>
+      </text>
+    </comment>
+    <comment ref="A44" authorId="2" shapeId="0" xr:uid="{5B739FD9-87C2-184F-B770-2491C9AAE2CC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -5892,6 +5901,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Jeff Pavlacic" id="{EA2F8222-A0FD-8A49-89F3-9F45FB49D127}" userId="S::jpavlaci@go.olemiss.edu::df15c4f2-d01d-4131-807b-8b5344af7aa7" providerId="AD"/>
   <person displayName="Buchanan, Erin M" id="{17AA908E-91D8-7340-B6D0-7948DCA30DA1}" userId="S::eri2005@missouristate.edu::245520d0-72e6-44b8-b90c-1c94bdd95622" providerId="AD"/>
 </personList>
 </file>
@@ -6218,6 +6228,9 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E43" dT="2020-04-17T01:12:31.87" personId="{EA2F8222-A0FD-8A49-89F3-9F45FB49D127}" id="{E999AAB3-10E2-E64D-B66B-3CCD4FA02825}">
+    <text xml:space="preserve">this looks to be 42 items on the PDF….did we miss something? exclude items? coded as 38 items </text>
+  </threadedComment>
   <threadedComment ref="A44" dT="2020-04-15T21:35:30.98" personId="{17AA908E-91D8-7340-B6D0-7948DCA30DA1}" id="{5B739FD9-87C2-184F-B770-2491C9AAE2CC}">
     <text>this is the college scale, we don’t want to use it</text>
   </threadedComment>
@@ -6228,9 +6241,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -6791,7 +6804,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="209" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="190" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>88</v>
       </c>
@@ -6853,7 +6866,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="114" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="95" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>100</v>
       </c>
@@ -7073,7 +7086,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="114" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="95" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>128</v>
       </c>
@@ -7183,7 +7196,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="171" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" ht="152" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>140</v>
       </c>
@@ -7243,7 +7256,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="247" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" ht="228" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>147</v>
       </c>
@@ -7293,7 +7306,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="95" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" ht="76" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>154</v>
       </c>
@@ -7756,7 +7769,7 @@
       <c r="AH26" s="14"/>
       <c r="AI26" s="14"/>
     </row>
-    <row r="27" spans="1:35" ht="76" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" ht="57" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>188</v>
       </c>
@@ -8230,7 +8243,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" ht="398" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>256</v>
       </c>
@@ -8591,7 +8604,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="76" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" ht="57" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>300</v>
       </c>
@@ -8640,7 +8653,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="76" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" ht="57" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>300</v>
       </c>
@@ -8739,7 +8752,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="95" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" ht="76" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>308</v>
       </c>
